--- a/data_names.xlsx
+++ b/data_names.xlsx
@@ -604,96 +604,96 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>PROTEO_EOTAXIN_HUMAN</t>
+          <t>PROTEOMICS_EOTAXIN (HUMAN)</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Incompatible</t>
+          <t>Eotaxin, human</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>PROTEO_IFN_Y_HUMAN</t>
+          <t>PROTEOMICS_IFN-Y (HUMAN)</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Incompatible</t>
+          <t>Interferon y, human</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>PROTEO_IL_15</t>
+          <t>PROTEOMICS_IL-15</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Incompatible</t>
+          <t>Interleukin-15</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>PROTEO_MCP_4_HUMAN</t>
+          <t>PROTEOMICS_MCP-4 (HUMAN)</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Incompatible</t>
+          <t>Monocyte chemotactic protein-4, human</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>PROTEO_MDC_HUMAN</t>
+          <t>PROTEOMICS_MDC (HUMAN)</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Incompatible</t>
+          <t>Myeloid dentritic cells, human</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>PROTEO_MIP_1A_HUMAN</t>
+          <t>PROTEOMICS_MIP-1A (HUMAN)</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Incompatible</t>
+          <t>Macrophage Inflammatory Protein 1a, human</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>PROTEO_SAA</t>
+          <t>PROTEOMICS_SAA</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Incompatible</t>
+          <t>Serum amyloid A</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>PROTEO_VEGF_ANGIO_PLATE</t>
+          <t>PROTEOMICS_VEGF- ANGIO PLATE</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Incompatible</t>
+          <t>Vascular endothelial growth factor angio plate</t>
         </is>
       </c>
     </row>

--- a/data_names.xlsx
+++ b/data_names.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B36"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,84 +472,84 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A44_SSBSTMO</t>
+          <t>A44_SSASTMO</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Systemic Steroids Hx B: Start date (month)</t>
+          <t>Systemic Steroids Hx A: Start date (month)</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>A44_SSBSTYR</t>
+          <t>A44_SSBSTMO</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Systemic Steroids Hx B: Start date (year)</t>
+          <t>Systemic Steroids Hx B: Start date (month)</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A44_SSCSTMO</t>
+          <t>A44_SSBSTYR</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Systemic Steroids Hx C: Start date (month)</t>
+          <t>Systemic Steroids Hx B: Start date (year)</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A44_SSCSTYR</t>
+          <t>A44_SSCSTMO</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Systemic Steroids Hx C: Start date (year)</t>
+          <t>Systemic Steroids Hx C: Start date (month)</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A44_SSDRT</t>
+          <t>A44_SSCSTYR</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Systemic Steroids Hx D: Route</t>
+          <t>Systemic Steroids Hx C: Start date (year)</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>C1_SS_WMS3_VR_II</t>
+          <t>A44_SSDRT</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Scaled Score WMS-3 Visual Reproduction 2</t>
+          <t>Systemic Steroids Hx D: Route</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>C1_SS_WMSR_VR_II</t>
+          <t>A5_TIA4YR</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Scaled Score WMS-R Visual Reproduction 2</t>
+          <t>Year TIA occurred</t>
         </is>
       </c>
     </row>
@@ -604,264 +604,240 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>PROTEOMICS_EOTAXIN (HUMAN)</t>
+          <t>PROTEO_CLUSTERIN</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Eotaxin, human</t>
+          <t>Incompatible</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>PROTEOMICS_IFN-Y (HUMAN)</t>
+          <t>PROTEO_EOTAXIN_HUMAN</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Interferon y, human</t>
+          <t>Incompatible</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>PROTEOMICS_IL-15</t>
+          <t>PROTEO_IL_15</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Interleukin-15</t>
+          <t>Incompatible</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>PROTEOMICS_MCP-4 (HUMAN)</t>
+          <t>PROTEO_MCP_4_HUMAN</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Monocyte chemotactic protein-4, human</t>
+          <t>Incompatible</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>PROTEOMICS_MDC (HUMAN)</t>
+          <t>PROTEO_MIP_1A_HUMAN</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Myeloid dentritic cells, human</t>
+          <t>Incompatible</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>PROTEOMICS_MIP-1A (HUMAN)</t>
+          <t>PROTEO_SAA</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Macrophage Inflammatory Protein 1a, human</t>
+          <t>Incompatible</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>PROTEOMICS_SAA</t>
+          <t>RBM_ALPHA_2</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Serum amyloid A</t>
+          <t xml:space="preserve">Alpha-2 Macroglobulin  0.0608 mg/mL </t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>PROTEOMICS_VEGF- ANGIO PLATE</t>
+          <t>RBM_ALPGA_F</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Vascular endothelial growth factor angio plate</t>
+          <t>Incompatible</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>RBM_ALPHA_2</t>
+          <t>RBM_AXL</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t xml:space="preserve">Alpha-2 Macroglobulin  0.0608 mg/mL </t>
+          <t xml:space="preserve">AXL 106167 &lt;0.10 ng/mL </t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>RBM_ALPGA_F</t>
+          <t>RBM_BLC</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Incompatible</t>
+          <t xml:space="preserve">B-Lymphocyte Chemoattractant (BLC) 106167 55.1 pg/ml </t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>RBM_AXL</t>
+          <t>RBM_CEA</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t xml:space="preserve">AXL 106167 &lt;0.10 ng/mL </t>
+          <t xml:space="preserve">Carcinoembryonic Antigen  0.841 ng/mL </t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>RBM_BLC</t>
+          <t>RBM_EGF</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t xml:space="preserve">B-Lymphocyte Chemoattractant (BLC) 106167 55.1 pg/ml </t>
+          <t xml:space="preserve">EGF  7.35 pg/mL </t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>RBM_CA_125</t>
+          <t>RBM_ACTIVE_GLP_1</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cancer Antigen 125  4.22 U/mL </t>
+          <t xml:space="preserve">GLP-1 active (Glucagon-like Peptide-1, active form)  9.9 pg/mL </t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>RBM_CEA</t>
+          <t>RBM_HAPTOGLOBIN</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t xml:space="preserve">Carcinoembryonic Antigen  0.841 ng/mL </t>
+          <t xml:space="preserve">Haptoglobin  0.025 mg/mL </t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>RBM_EGF</t>
+          <t>RBM_MMP_3</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t xml:space="preserve">EGF  7.35 pg/mL </t>
+          <t xml:space="preserve">MMP-3  0.2 ng/mL </t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>RBM_ACTIVE_GLP_1</t>
+          <t>Q1_YKL_40</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t xml:space="preserve">GLP-1 active (Glucagon-like Peptide-1, active form)  9.9 pg/mL </t>
+          <t>YKL-40 (Chitinase 3-like 1) pg/ml</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>RBM_HAPTOGLOBIN</t>
+          <t>F1_PSMS2</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t xml:space="preserve">Haptoglobin  0.025 mg/mL </t>
+          <t>Physical Self Maintenace Scale,Feeding</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>RBM_MMP_3</t>
+          <t>F1_PSMS4</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t xml:space="preserve">MMP-3  0.2 ng/mL </t>
+          <t>Physical Self Maintenace Scale,Grooming</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Q1_YKL_40</t>
+          <t>F1_PSMS6</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>YKL-40 (Chitinase 3-like 1) pg/ml</t>
+          <t>Physical Self Maintenace Scale,Bathing</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>F1_PSMS2</t>
+          <t>I1_INSEX</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Physical Self Maintenace Scale,Feeding</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>F1_PSMS4</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>Physical Self Maintenace Scale,Grooming</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>F1_PSMS6</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>Physical Self Maintenace Scale,Bathing</t>
+          <t>Informant sex</t>
         </is>
       </c>
     </row>
